--- a/data/ref_base_china.xlsx
+++ b/data/ref_base_china.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Diplomado CSC\proyecto-china\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868EFA89-2DEF-4A7E-8ECA-449D3B189CB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5702E213-42B5-4B0A-B58B-25B6B83778DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C54B7809-B7C2-4B26-B69C-F3E27A5B1FCF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="247">
   <si>
     <t>País signatario con RPC</t>
   </si>
@@ -722,9 +722,6 @@
     <t>La intensidad comercial bilateral mide la importancia de los productos exportados o importados en el mercado del país socio. En ese sentido, este indicador no sólo mide el flujo de comercio de dos vías, sino, además, cuantifica la importancia de los bienes comerciados para el mercado del país socio.</t>
   </si>
   <si>
-    <t>Membresía AIIB: datos del AIIB (2023). Ref: 1. Regionales. 2. No Regionales. 0. No miembros</t>
-  </si>
-  <si>
     <t>Proyectos AIIB: datos del AIIB (2022). No se consideran los multipaíses.</t>
   </si>
   <si>
@@ -737,9 +734,6 @@
     <t>Comercio: datos de UN Comtrade (2022). Se emplearon datos espejos del comercio con China. En dólares de US corrientes.</t>
   </si>
   <si>
-    <t>Financiamiento al Desarrollo: AIDData (2000-2017). No incluye países de altos ingresos, pero sí cubre algunos que cayeron en esa categoría durante el relevamiento. En dólares de US.</t>
-  </si>
-  <si>
     <t>No se incluye financiamiento al desarrollo para multipaís y regionales (AidData).</t>
   </si>
   <si>
@@ -749,9 +743,6 @@
     <t xml:space="preserve">Miembros de BRI: datos del Green Belt and Road Initiative Center y Belt and Road Portal. Ref: 0. No; 1. Si; 2. Indeterminado; 9. No corresponde. </t>
   </si>
   <si>
-    <t>IED: datos del AEI (2022). Las inversiones bajo la BRI están incluídas en el total. En dólares de US.</t>
-  </si>
-  <si>
     <t xml:space="preserve">UN Conv: Convergencia con China en votaciones de la AG de ONU. Datos de Harvard dataverse (2022). Ref: 0. Ninguna convergencia. 1. Convergencia total. 9. No corresponde. </t>
   </si>
   <si>
@@ -764,13 +755,25 @@
     <t>UN Conv HR: Convergencia en materia de Derechos Humanos con China en votaciones de la AG de ONU. Ibid.</t>
   </si>
   <si>
-    <t>NA: No hay datos / No corresponde (para evitar el 9 en variable numérica)</t>
-  </si>
-  <si>
     <t>Datos_lag: Se mueven los datos económicos (t-1) al año siguiente (t) para medir los efectos retrasados.</t>
   </si>
   <si>
     <t>Datos_ln: Calculo el logaritmo natural para compensar la distribución logarítmica de los datos económicos.</t>
+  </si>
+  <si>
+    <t>Membresía AIIB: datos del AIIB (2023). Ref: 1. Regionales. 2. No Regionales. 0. No miembros. Desde 2014.</t>
+  </si>
+  <si>
+    <t>IED: datos del AEI (2022). Las inversiones bajo la BRI están incluídas en el total. En dólares de US. Desde 2005.</t>
+  </si>
+  <si>
+    <t>Financiamiento al Desarrollo: AIDData (2000-2017). No incluye países de altos ingresos, pero sí cubre algunos que cayeron en esa categoría durante el relevamiento. En dólares de US. Desde 2000.</t>
+  </si>
+  <si>
+    <t>CINC: Indice de Capacidades Materiales de Correlates of War. Hasta 2016.</t>
+  </si>
+  <si>
+    <t>NA: Preferentemente, se deja vacío. Pero puede haber quedado un "na".</t>
   </si>
 </sst>
 </file>
@@ -1240,10 +1243,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F39AB66-0D40-4C97-882B-A0327D49DCD2}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1258,72 +1261,72 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
@@ -1338,16 +1341,21 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="12" t="s">
         <v>245</v>
       </c>
     </row>
